--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
+          <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
+          <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3483,37 +3483,37 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -4, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3560,37 +3560,37 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -4, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3637,37 +3637,37 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -4, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3714,37 +3714,37 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -4, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3791,32 +3791,32 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -4, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Poland', 'Romania', 'Bulgaria', 'Uruguay']</t>
+          <t>['Colombia', 'Scotland', 'Ireland', 'Romania']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3868,32 +3868,32 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -4, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Poland', 'Romania', 'Bulgaria', 'Uruguay']</t>
+          <t>['Colombia', 'Scotland', 'Ireland', 'Romania']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3945,32 +3945,32 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -4, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4032,22 +4032,22 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Bulgaria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4056,10 +4056,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4109,22 +4109,22 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Bulgaria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4186,22 +4186,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Bulgaria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Bulgaria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4340,22 +4340,22 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Bulgaria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4417,22 +4417,22 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland', 'Colombia', 'Bulgaria']</t>
+          <t>['Argentina', 'Scotland', 'Ireland', 'Colombia']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Bulgaria', 2, -2, 2]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4494,34 +4494,34 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Bulgaria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4571,34 +4571,34 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>['Hungary', 'Austria']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4648,34 +4648,34 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['Hungary', 'Austria']</t>
+          <t>['Uruguay', 'Austria']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4725,34 +4725,34 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4802,34 +4802,34 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4879,34 +4879,34 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -7, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4956,34 +4956,34 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Austria', 'Uruguay']</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -5033,17 +5033,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Poland']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5053,14 +5053,14 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -5110,17 +5110,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Sweden']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5130,14 +5130,14 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P61" t="n">
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -5187,17 +5187,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Poland']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5207,14 +5207,14 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -5264,17 +5264,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5284,14 +5284,14 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P63" t="n">
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -5341,17 +5341,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5361,14 +5361,14 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5438,14 +5438,14 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -5500,12 +5500,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5515,14 +5515,14 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5592,14 +5592,14 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -5654,12 +5654,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Poland', 'Austria']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5669,14 +5669,14 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>['Poland', 3, -2, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Uruguay', 'Poland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5746,14 +5746,14 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P69" t="n">
         <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -5823,14 +5823,14 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -5900,14 +5900,14 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P71" t="n">
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -5977,14 +5977,14 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P72" t="n">
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -6054,14 +6054,14 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P73" t="n">
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -6096,42 +6096,42 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -1, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'Saudi Arabia', 'Norway', 'Romania']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Scotland']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -6173,42 +6173,42 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -1, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Scotland']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -6250,42 +6250,42 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -1, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Scotland']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -6327,42 +6327,42 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -1, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Scotland']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6414,32 +6414,32 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['South Korea', 'Uruguay']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea', 'Ireland', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6491,32 +6491,32 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6568,32 +6568,32 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6645,32 +6645,32 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6722,32 +6722,32 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['Cameroon', 'South Korea']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Cameroon', 'South Korea', 'Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6799,32 +6799,32 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P83" t="n">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6876,32 +6876,32 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6953,32 +6953,32 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7030,32 +7030,32 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P86" t="n">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7107,32 +7107,32 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Uruguay', 3, -1, 2]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['United States', 'Argentina', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>['Uruguay', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P87" t="n">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7194,29 +7194,29 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['United States', 'Norway', 'Argentina', 'Colombia']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['Ireland', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7271,29 +7271,29 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['United States', 'Norway', 'Argentina', 'Colombia']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>['Ireland', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7348,29 +7348,29 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Argentina', 'Colombia']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Ireland', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P90" t="n">
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7440,14 +7440,14 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7502,12 +7502,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7517,14 +7517,14 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7579,12 +7579,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7594,14 +7594,14 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P93" t="n">
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7671,14 +7671,14 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7733,12 +7733,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7748,14 +7748,14 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P95" t="n">
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7810,12 +7810,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7825,14 +7825,14 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7887,12 +7887,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7902,14 +7902,14 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7964,12 +7964,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Ireland']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7979,14 +7979,14 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P98" t="n">
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8041,29 +8041,29 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Colombia', 'Russia']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Ireland', 'South Korea']</t>
+          <t>['Russia', 'South Korea']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8118,29 +8118,29 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 2]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Russia', 'Colombia']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>['Ireland', 'South Korea']</t>
+          <t>['Russia', 'South Korea']</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia', 'Italy', 'Russia']</t>
+          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>['Colombia', 'South Korea']</t>
+          <t>['Russia', 'South Korea']</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -8214,10 +8214,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -8277,24 +8277,24 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands', 'Italy', 'Russia']</t>
+          <t>['Bulgaria', 'United States', 'Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>['Colombia', 'South Korea']</t>
+          <t>['Russia', 'South Korea']</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="P102" t="n">
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8354,12 +8354,12 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
+          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>['Colombia', 'South Korea']</t>
+          <t>['Russia', 'South Korea']</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -8371,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8431,12 +8431,12 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands', 'Italy', 'Russia']</t>
+          <t>['Bulgaria', 'United States', 'Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>['Colombia', 'South Korea']</t>
+          <t>['Russia', 'South Korea']</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -8448,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 3]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
+          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>['Colombia', 'South Korea']</t>
+          <t>['Russia', 'South Korea']</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="Q105" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="Q108" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Austria', 'Argentina']</t>
+          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['Cameroon', 'South Korea', 'Saudi Arabia', 'United States']</t>
+          <t>['Saudi Arabia', 'United States', 'Cameroon', 'South Korea']</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Netherlands', 'Italy']</t>
+          <t>['Bulgaria', 'United States', 'Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -3513,14 +3513,14 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3590,14 +3590,14 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3667,14 +3667,14 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3744,14 +3744,14 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -4514,14 +4514,14 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4591,14 +4591,14 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -4668,14 +4668,14 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -4745,14 +4745,14 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -4822,14 +4822,14 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -4899,14 +4899,14 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -4976,14 +4976,14 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -5053,14 +5053,14 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -5130,14 +5130,14 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P61" t="n">
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -5207,14 +5207,14 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -5284,14 +5284,14 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P63" t="n">
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -5361,14 +5361,14 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -5438,14 +5438,14 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -5515,14 +5515,14 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -5592,14 +5592,14 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -5669,14 +5669,14 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -5746,14 +5746,14 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P69" t="n">
         <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -5823,14 +5823,14 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -5900,14 +5900,14 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P71" t="n">
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -5977,14 +5977,14 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P72" t="n">
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -6054,14 +6054,14 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Colombia', 'Scotland']</t>
+          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P73" t="n">
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -6135,10 +6135,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6208,14 +6208,14 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P75" t="n">
         <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -6362,14 +6362,14 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -6439,14 +6439,14 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6516,14 +6516,14 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6593,14 +6593,14 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P80" t="n">
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6670,14 +6670,14 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -6747,14 +6747,14 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States', 'Cameroon', 'South Korea']</t>
+          <t>['South Korea', 'United States', 'Saudi Arabia', 'Cameroon']</t>
         </is>
       </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -6824,14 +6824,14 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P83" t="n">
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -6901,14 +6901,14 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P84" t="n">
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -6978,14 +6978,14 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P85" t="n">
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -7055,14 +7055,14 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P86" t="n">
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -7132,14 +7132,14 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P87" t="n">
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -7209,14 +7209,14 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P88" t="n">
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -7286,14 +7286,14 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -7363,14 +7363,14 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P90" t="n">
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -7440,14 +7440,14 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P91" t="n">
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -7517,14 +7517,14 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -7594,14 +7594,14 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P93" t="n">
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -7671,14 +7671,14 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -7748,14 +7748,14 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P95" t="n">
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -7825,14 +7825,14 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -7902,14 +7902,14 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -7979,14 +7979,14 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P98" t="n">
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -8056,14 +8056,14 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P99" t="n">
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -8133,14 +8133,14 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P100" t="n">
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -8210,14 +8210,14 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -8371,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -8441,14 +8441,14 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'United States']</t>
+          <t>['United States', 'Netherlands']</t>
         </is>
       </c>
       <c r="P104" t="n">
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="Q105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="Q108" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States', 'Saudi Arabia', 'Cameroon']</t>
+          <t>['United States', 'Saudi Arabia', 'Cameroon', 'South Korea']</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="P102" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia', 'Cameroon', 'South Korea']</t>
+          <t>['Cameroon', 'Saudi Arabia', 'South Korea', 'United States']</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P83" t="n">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P86" t="n">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P87" t="n">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P88" t="n">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P89" t="n">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P101" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
+          <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
+          <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Colombia', 'Austria', 'Scotland', 'Argentina']</t>
+          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Saudi Arabia', 'South Korea', 'United States']</t>
+          <t>['South Korea', 'Saudi Arabia', 'United States', 'Cameroon']</t>
         </is>
       </c>
       <c r="P82" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia', 'Argentina', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['South Korea', 'Saudi Arabia', 'United States', 'Cameroon']</t>
+          <t>['United States', 'Cameroon', 'South Korea', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P83" t="n">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P86" t="n">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P87" t="n">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P88" t="n">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P89" t="n">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="P102" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
+          <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
+          <t>['Uruguay', 'Hungary']</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['United States', 'Cameroon', 'South Korea', 'Saudi Arabia']</t>
+          <t>['South Korea', 'United States', 'Saudi Arabia', 'Cameroon']</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands']</t>
+          <t>['Netherlands', 'United States']</t>
         </is>
       </c>
       <c r="P104" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -547,32 +547,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Italy', 3, 0, 2]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -4, 2]</t>
+          <t>['Hungary', 2, -4, 2]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Italy', 3, 0, 2]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -639,39 +639,39 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -701,12 +701,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Italy', 3, 0, 2]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -716,39 +716,39 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['Hungary', 'Uruguay']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -778,12 +778,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Italy', 3, 0, 2]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -793,27 +793,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -855,12 +855,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Italy', 3, 0, 2]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -870,27 +870,27 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -932,12 +932,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Italy', 3, 0, 2]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -947,27 +947,27 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Italy', 3, 0, 2]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1024,27 +1024,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1101,39 +1101,39 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Bulgaria', 'Northern Ireland']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1178,39 +1178,39 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Bulgaria', 'Northern Ireland']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1255,39 +1255,39 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Bulgaria', 'Northern Ireland']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1332,39 +1332,39 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Bulgaria', 'Northern Ireland']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Northern Ireland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1409,27 +1409,27 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1486,27 +1486,27 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1563,27 +1563,27 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 0, 3]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1640,27 +1640,27 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1717,27 +1717,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Paraguay', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1794,27 +1794,27 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1871,27 +1871,27 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1948,27 +1948,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Paraguay', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2025,27 +2025,27 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2102,27 +2102,27 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['Morocco', 3, 0, 0]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['Belgium', 'England', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'England', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2410,12 +2410,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2425,12 +2425,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2502,12 +2502,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2579,12 +2579,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2718,12 +2718,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 2, -1, 2]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Hungary']</t>
+          <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>['Hungary', 'Algeria']</t>
+          <t>['Algeria', 'Uruguay']</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -5, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3272,12 +3272,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['Hungary', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -3473,32 +3473,32 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 2]</t>
+          <t>['Argentina', 2, 1, 2]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3560,22 +3560,22 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3637,22 +3637,22 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3714,22 +3714,22 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3791,27 +3791,27 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Ireland', 'Romania']</t>
+          <t>['Colombia', 'Romania', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3868,27 +3868,27 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Ireland', 'Romania']</t>
+          <t>['Colombia', 'Romania', 'Scotland', 'Ireland']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3945,22 +3945,22 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4022,22 +4022,22 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Colombia', 3, 1, 2]</t>
+          <t>['Colombia', 2, 1, 2]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4417,17 +4417,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Argentina', 'Scotland', 'Ireland', 'Colombia']</t>
+          <t>['Argentina', 'Scotland', 'Colombia', 'Ireland']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Austria', 1, -2, 0]</t>
+          <t>['Austria', 0, -2, 0]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4571,12 +4571,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4725,12 +4725,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4802,34 +4802,34 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+          <t>['Argentina', 'Colombia', 'Austria', 'Scotland']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>['Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4879,34 +4879,34 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+          <t>['Argentina', 'Colombia', 'Austria', 'Scotland']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Austria', 'Uruguay']</t>
+          <t>['Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4956,12 +4956,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['Scotland', 3, 0, 2]</t>
+          <t>['Scotland', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -5110,12 +5110,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -5187,12 +5187,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5214,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -5284,14 +5284,14 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -5341,12 +5341,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5361,14 +5361,14 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -5418,12 +5418,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Uruguay', 2, -2, 1]</t>
+          <t>['Uruguay', 1, -2, 1]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5438,14 +5438,14 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5515,14 +5515,14 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5592,14 +5592,14 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5669,14 +5669,14 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Uruguay', 'Ireland']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5746,14 +5746,14 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
         <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['Ireland', 3, 0, 1]</t>
+          <t>['Ireland', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+          <t>['Argentina', 'Colombia', 'Uruguay', 'Ireland']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5823,14 +5823,14 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -5900,14 +5900,14 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -5977,14 +5977,14 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -6054,14 +6054,14 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -6091,32 +6091,32 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Romania', 4, -1, 4]</t>
+          <t>['Romania', 3, -1, 4]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['South Korea', 3, 0, 2]</t>
+          <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6173,32 +6173,32 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['South Korea', 3, 0, 2]</t>
+          <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -6250,32 +6250,32 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['South Korea', 3, 0, 2]</t>
+          <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -6327,32 +6327,32 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['South Korea', 3, 0, 2]</t>
+          <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -6404,32 +6404,32 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['South Korea', 3, 0, 2]</t>
+          <t>['South Korea', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6491,22 +6491,22 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6568,22 +6568,22 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6645,22 +6645,22 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6722,32 +6722,32 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Cameroon', 'South Korea']</t>
+          <t>['South Korea', 'Cameroon']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States', 'Saudi Arabia', 'Cameroon']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6799,22 +6799,22 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P83" t="n">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6876,22 +6876,22 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6953,22 +6953,22 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7030,22 +7030,22 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P86" t="n">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7107,22 +7107,22 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P87" t="n">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7184,22 +7184,22 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Norway', 4, 0, 1]</t>
+          <t>['Norway', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P88" t="n">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7271,12 +7271,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Norway', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7286,14 +7286,14 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7348,12 +7348,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7363,14 +7363,14 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P90" t="n">
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Cameroon', 2, -3, 2]</t>
+          <t>['Cameroon', 1, -3, 2]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7440,14 +7440,14 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P91" t="n">
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7502,12 +7502,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7517,14 +7517,14 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7579,12 +7579,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7594,14 +7594,14 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P93" t="n">
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7671,14 +7671,14 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7733,12 +7733,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7748,14 +7748,14 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P95" t="n">
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7810,12 +7810,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7825,14 +7825,14 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7887,12 +7887,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7902,14 +7902,14 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7964,12 +7964,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7979,14 +7979,14 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P98" t="n">
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8041,29 +8041,29 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Bulgaria', 'Russia']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['Saudi Arabia', 'South Korea']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8118,29 +8118,29 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Russia', 'Bulgaria']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['Saudi Arabia', 'South Korea']</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -8195,29 +8195,29 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 4, 0, 3]</t>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+          <t>['United States', 'Italy', 'Russia', 'Bulgaria']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['Saudi Arabia', 'South Korea']</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -8277,12 +8277,12 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Italy', 'Netherlands']</t>
+          <t>['United States', 'Italy', 'Netherlands', 'Russia']</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['Bulgaria', 'South Korea']</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8354,12 +8354,12 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
+          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['Bulgaria', 'South Korea']</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -8371,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8431,24 +8431,24 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'United States', 'Netherlands', 'Italy']</t>
+          <t>['United States', 'Netherlands', 'Italy', 'Russia']</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['Bulgaria', 'South Korea']</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'United States']</t>
+          <t>['United States', 'Netherlands']</t>
         </is>
       </c>
       <c r="P104" t="n">
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
+          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['Bulgaria', 'South Korea']</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="Q105" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Bulgaria', 4, 1, 4]</t>
+          <t>['Bulgaria', 3, 1, 4]</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8585,12 +8585,12 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
+          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>['Russia', 'South Korea']</t>
+          <t>['Bulgaria', 'South Korea']</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
@@ -8676,10 +8676,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="Q108" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Argentina', 'Austria', 'Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands']</t>
+          <t>['Netherlands', 'United States']</t>
         </is>
       </c>
       <c r="P104" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Hungary', 2, -4, 2]</t>
+          <t>['Hungary', 3, -4, 2]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
+          <t>['Hungary', 'Belgium', 'Italy', 'Morocco']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Italy', 2, 0, 2]</t>
+          <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
+          <t>['Italy', 'Belgium', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Belgium', 2, 0, 3]</t>
+          <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['Morocco', 2, 0, 0]</t>
+          <t>['Morocco', 3, 0, 0]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 1, -1, 2]</t>
+          <t>['Northern Ireland', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Uruguay']</t>
+          <t>['Hungary', 'Uruguay']</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -5, 2]</t>
+          <t>['Uruguay', 2, -5, 2]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3272,12 +3272,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Uruguay']</t>
+          <t>['Hungary', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Argentina', 2, 1, 2]</t>
+          <t>['Argentina', 3, 1, 2]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Colombia', 2, 1, 2]</t>
+          <t>['Colombia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia']</t>
+          <t>['Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Austria', 0, -2, 0]</t>
+          <t>['Austria', 1, -2, 0]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['Scotland', 2, 0, 2]</t>
+          <t>['Scotland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Uruguay', 1, -2, 1]</t>
+          <t>['Uruguay', 2, -2, 1]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['Ireland', 2, 0, 1]</t>
+          <t>['Ireland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Uruguay', 'Ireland']</t>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5823,14 +5823,14 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -5900,14 +5900,14 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -5977,14 +5977,14 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -6054,14 +6054,14 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Austria', 'Argentina', 'Scotland', 'Colombia']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Romania', 3, -1, 4]</t>
+          <t>['Romania', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Saudi Arabia', 'Norway', 'Romania']</t>
+          <t>['Romania', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['South Korea', 2, 0, 2]</t>
+          <t>['South Korea', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6429,12 +6429,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'South Korea']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['South Korea', 'Cameroon']</t>
+          <t>['Norway', 'Cameroon']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -6520,10 +6520,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Norway', 3, 0, 1]</t>
+          <t>['Norway', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+          <t>['United States', 'Norway', 'Bulgaria', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7213,10 +7213,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -7290,10 +7290,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Cameroon', 1, -3, 2]</t>
+          <t>['Cameroon', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -8195,29 +8195,29 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 3, 0, 3]</t>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['United States', 'Italy', 'Russia', 'Bulgaria']</t>
+          <t>['United States', 'Saudi Arabia', 'Italy', 'Russia']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'South Korea']</t>
+          <t>['Bulgaria', 'South Korea']</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -8371,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -8441,14 +8441,14 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands']</t>
+          <t>['Netherlands', 'United States']</t>
         </is>
       </c>
       <c r="P104" t="n">
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="Q105" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Bulgaria', 3, 1, 4]</t>
+          <t>['Bulgaria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8585,12 +8585,12 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
+          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'South Korea']</t>
+          <t>['Russia', 'South Korea']</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -8676,10 +8676,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="Q108" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia']</t>
+          <t>['Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Colombia', 'Argentina']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="P102" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,10 +522,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
@@ -534,52 +542,52 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Iran', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Australia', 1, -1, 2]</t>
+          <t>['Hungary', 3, -4, 2]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Iceland', 1, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Serbia', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['Serbia', 'Sweden', 'Iran', 'Australia']</t>
+          <t>['Hungary', 'Belgium', 'Italy', 'Morocco']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -591,64 +599,72 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Australia', 1, -1, 2]</t>
+          <t>['Hungary', 2, -5, 2]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Iceland', 1, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Serbia', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['Iran', 'Serbia', 'Sweden', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -660,15 +676,23 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -677,47 +701,47 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -5, 2]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Iceland', 1, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Serbia', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Iran', 'Serbia', 'Sweden', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -729,64 +753,72 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -6, 2]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Serbia', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Iran', 'Serbia', 'Sweden', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -798,59 +830,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -6, 2]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Serbia', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Serbia', 'Iran', 'Sweden', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -867,64 +907,72 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Serbia', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['Sweden', 4, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Serbia', 'Sweden', 'Iran', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -936,10 +984,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -948,52 +1004,52 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Serbia', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['Sweden', 4, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Serbia', 'Sweden', 'Iran', 'Australia']</t>
+          <t>['Italy', 'Belgium', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1005,81 +1061,97 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Serbia', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['Sweden', 4, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Serbia', 'Sweden', 'Iran', 'Australia']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1091,42 +1163,42 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['United States', 2, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 1, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Japan', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Senegal', 'Argentina', 'Japan', 'Belgium']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>['United States', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1138,64 +1210,72 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 1, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Japan', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Senegal', 'Argentina', 'Japan', 'United States']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1204,7 +1284,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1212,59 +1292,67 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 1, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Japan', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'United States']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1281,59 +1369,67 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Japan', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'United States']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1350,59 +1446,67 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Japan', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'United States']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1419,59 +1523,67 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Japan', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['Belgium', 4, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'Belgium']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['United States', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1480,18 +1592,26 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
@@ -1500,47 +1620,47 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Japan', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['Belgium', 4, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'Belgium']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['United States', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1552,64 +1672,72 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Paraguay', 3, 0, 2]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Japan', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Belgium', 4, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'Belgium']</t>
+          <t>['Paraguay', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['United States', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1618,10 +1746,7171 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 4]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['Morocco', 2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>54</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 4]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['Morocco', 2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>59</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Paraguay', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['Morocco', 2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>['Paraguay', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>76</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>['Morocco', 2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>['Morocco', 3, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>['England', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>['Belgium', 'England', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>['Morocco', 3, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>19</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -1, 1]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>27</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -1, 1]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>62</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>80</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['Algeria', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Algeria', 'Bulgaria']</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -2, 2]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>42</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['Algeria', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>['Algeria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>68</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>70</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>87</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -4, 2]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1986-06-13</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -4, 2]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1986-06-13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>43</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -4, 2]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1986-06-13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>62</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -4, 2]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>29</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>52</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>62</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Romania', 2, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Romania', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>63</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Romania', 2, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Romania', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>68</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>22</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>46</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>88</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Scotland', 'Colombia', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>93</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Austria', 1, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['Austria', 1, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>49</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>63</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>78</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>83</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['Scotland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>32</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['Sweden', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>75</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['Scotland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>81</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>87</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>26</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>29</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>38</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>91</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Uruguay', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['Ireland', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>11</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['Egypt', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>58</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['Egypt', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Egypt']</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['Romania', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>['Romania', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>18</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>44</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>90</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['South Korea', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>['Norway', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>12</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>19</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>37</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -3, 2]</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>52</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -2, 3]</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>63</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>66</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>67</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>70</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>['Norway', 4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>['United States', 'Norway', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>48</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>['Norway', 4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>['United States', 'Norway', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>57</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['Cameroon', 2, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>15</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>23</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>41</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -2, 3]</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>44</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>46</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -2, 4]</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>47</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -2, 4]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>72</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -1, 5]</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>75</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 0, 6]</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>81</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Russia', 'Bulgaria']</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia', 'Italy', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 'United States']</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Netherlands', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['Italy', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>43</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>47</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>['United States', 'Netherlands', 'Italy', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['United States', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>77</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>47</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>61</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>['Argentina', 6, 4, 6]</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Belgium', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>93</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>['Argentina', 6, 3, 6]</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Belgium', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>95</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>['Argentina', 6, 3, 6]</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Belgium', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Argentina', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="P102" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,10 +522,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
@@ -534,52 +542,52 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Iran', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Australia', 1, -1, 2]</t>
+          <t>['Hungary', 3, -4, 2]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Iceland', 1, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Serbia', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['Serbia', 'Sweden', 'Iran', 'Australia']</t>
+          <t>['Hungary', 'Belgium', 'Italy', 'Morocco']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -591,64 +599,72 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Australia', 1, -1, 2]</t>
+          <t>['Hungary', 2, -5, 2]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Iceland', 1, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Serbia', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['Iran', 'Serbia', 'Sweden', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -660,15 +676,23 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -677,47 +701,47 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -5, 2]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Iceland', 1, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Serbia', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Iran', 'Serbia', 'Sweden', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -729,64 +753,72 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -6, 2]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Serbia', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Iran', 'Serbia', 'Sweden', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -798,59 +830,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -6, 2]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Serbia', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Sweden', 3, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Serbia', 'Iran', 'Sweden', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -867,64 +907,72 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1986-06-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 2, 0, 2]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Serbia', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['Sweden', 4, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Serbia', 'Sweden', 'Iran', 'Australia']</t>
+          <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -936,10 +984,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -948,52 +1004,52 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Italy', 3, 0, 2]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Serbia', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['Sweden', 4, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Serbia', 'Sweden', 'Iran', 'Australia']</t>
+          <t>['Italy', 'Belgium', 'Morocco', 'Hungary']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1005,81 +1061,97 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Egypt', 1, -3, 1]</t>
+          <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Iran', 4, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Australia', 2, -1, 2]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Iceland', 2, -2, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Serbia', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['Sweden', 4, 0, 2]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Serbia', 'Sweden', 'Iran', 'Australia']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>['Iceland', 'Egypt']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['Sweden', 'Serbia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1091,42 +1163,42 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['United States', 2, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 1, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Japan', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Senegal', 'Argentina', 'Japan', 'Belgium']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>['United States', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1138,64 +1210,72 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Argentina', 3, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 1, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Japan', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Senegal', 'Argentina', 'Japan', 'United States']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1204,7 +1284,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1212,59 +1292,67 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 1, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Japan', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'United States']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1281,59 +1369,67 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Japan', 3, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'United States']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1350,59 +1446,67 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Japan', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['Belgium', 3, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'United States']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1419,59 +1523,67 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1986-06-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 2, 0, 3]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Japan', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['Belgium', 4, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'Belgium']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['United States', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1480,18 +1592,26 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
@@ -1500,47 +1620,47 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Belgium', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Japan', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['Belgium', 4, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'Belgium']</t>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['United States', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1552,64 +1672,72 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+        <v>1986</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Senegal', 4, 0, 3]</t>
+          <t>['Bulgaria', 2, -2, 2]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['United States', 3, 0, 1]</t>
+          <t>['Paraguay', 3, 0, 2]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['Argentina', 4, 1, 3]</t>
+          <t>['Hungary', 2, -7, 2]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Denmark', 2, -1, 1]</t>
+          <t>['Northern Ireland', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Japan', 4, 0, 2]</t>
+          <t>['Uruguay', 1, -5, 2]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Belgium', 4, -1, 1]</t>
+          <t>['Morocco', 2, 0, 0]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Argentina', 'Senegal', 'Japan', 'Belgium']</t>
+          <t>['Paraguay', 'Morocco', 'Bulgaria', 'Hungary']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['United States', 'Denmark']</t>
+          <t>['Northern Ireland', 'Uruguay']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1618,10 +1746,7171 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 4]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['Morocco', 2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>54</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 4]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['Morocco', 2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>59</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Paraguay', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['Morocco', 2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>['Paraguay', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>76</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>['Morocco', 2, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>['Morocco', 3, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>['England', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>['Belgium', 'England', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>['Morocco', 3, 0, 0]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>19</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -1, 1]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>27</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -1, 1]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>62</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1986-06-11</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>80</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['Algeria', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Algeria', 'Bulgaria']</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -2, 2]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>42</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['Algeria', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>['Algeria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>68</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>70</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1986-06-12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>87</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -4, 2]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1986-06-13</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -4, 2]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1986-06-13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>43</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -4, 2]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1986-06-13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>62</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Belgium', 3, 0, 5]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Hungary', 2, -7, 2]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 1, -4, 2]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Poland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Poland', 'Bulgaria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>29</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>52</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>62</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Romania', 2, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Romania', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>63</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Romania', 2, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Romania', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1990-06-18</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>68</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>22</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>46</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>88</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['Colombia', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Scotland', 'Colombia', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>93</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Austria', 0, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Austria', 1, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['Austria', 1, -2, 0]</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>49</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>63</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>78</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['Austria', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1990-06-19</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>83</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['Scotland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>32</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['Sweden', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>75</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['Scotland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>['Austria', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>81</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1990-06-20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>87</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>['Uruguay', 1, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>26</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>29</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>38</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>['Uruguay', 2, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>91</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Uruguay', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['Ireland', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>11</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['Egypt', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>58</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['Egypt', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Uruguay', 'Austria']</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>['Scotland', 'Egypt']</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1990-06-21</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['Austria', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['Argentina', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>['Colombia', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>['Uruguay', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['Romania', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>['Romania', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>18</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>44</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1994-06-26</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>90</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['South Korea', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>['Norway', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>12</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>19</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -2, 2]</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>37</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -3, 2]</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>52</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -2, 3]</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>63</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>66</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>67</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1994-06-27</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>70</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>['Norway', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>['Norway', 4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>['United States', 'Norway', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>48</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>['Norway', 4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>['United States', 'Norway', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>57</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['Cameroon', 1, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['Cameroon', 2, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>15</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>23</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>41</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -2, 3]</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>44</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>46</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -2, 4]</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>47</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -2, 4]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>72</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -1, 5]</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>75</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 0, 6]</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Bulgaria', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1994-06-28</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>81</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Russia', 'Bulgaria']</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia', 'Italy', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['United States', 'Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>['United States', 'Italy', 'Netherlands', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Italy']</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>43</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>47</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>['United States', 'Netherlands', 'Italy', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['United States', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1994-06-29</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>77</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>47</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>61</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 6, 2, 5]</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Belgium', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>93</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 6, 3, 6]</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Belgium', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1994-06-30</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>95</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>['United States', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>['Russia', 3, 1, 7]</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['South Korea', 2, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 6, 3, 6]</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>['Italy', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>['Belgium', 6, 1, 2]</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Belgium', 'United States', 'Italy']</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>['Russia', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -4437,7 +4437,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['Scotland', 'Colombia']</t>
+          <t>['Colombia', 'Scotland']</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Austria', 'Scotland', 'Colombia', 'Argentina']</t>
+          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['United States', 'Netherlands']</t>
+          <t>['Netherlands', 'United States']</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Bulgaria', 6, 3, 6]</t>
+          <t>['Argentina', 6, 3, 6]</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Belgium', 'United States', 'Italy']</t>
+          <t>['Argentina', 'Belgium', 'United States', 'Italy']</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 6, 3, 6]</t>
+          <t>['Argentina', 6, 3, 6]</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Belgium', 'United States', 'Italy']</t>
+          <t>['Argentina', 'Belgium', 'United States', 'Italy']</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['Colombia', 'Argentina']</t>
+          <t>['Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland', 'Austria', 'Argentina']</t>
+          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'United States']</t>
+          <t>['United States', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="P101" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -4437,7 +4437,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['Colombia', 'Scotland']</t>
+          <t>['Scotland', 'Colombia']</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Argentina', 'Colombia', 'Scotland', 'Austria']</t>
+          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['United States', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'United States']</t>
         </is>
       </c>
       <c r="P101" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['Scotland', 'Argentina', 'Austria', 'Colombia']</t>
+          <t>['Scotland', 'Austria', 'Argentina', 'Colombia']</t>
         </is>
       </c>
       <c r="P73" t="n">

--- a/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
+++ b/data/out/wiki/men/uefa/wc/third_teams_wc_eufa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="151">
   <si>
     <t>year</t>
   </si>
@@ -130,7 +130,7 @@
     <t>23:30</t>
   </si>
   <si>
-    <t>['Italy', 2, 0, 2]</t>
+    <t>['Italy', 3, 0, 2]</t>
   </si>
   <si>
     <t>['Bulgaria', 2, -1, 2]</t>
@@ -139,9 +139,6 @@
     <t>['Bulgaria', 2, -2, 2]</t>
   </si>
   <si>
-    <t>['Austria', 0, -2, 0]</t>
-  </si>
-  <si>
     <t>['Austria', 1, -2, 0]</t>
   </si>
   <si>
@@ -154,13 +151,13 @@
     <t>['Austria', 2, -1, 2]</t>
   </si>
   <si>
-    <t>['Romania', 3, -1, 4]</t>
+    <t>['Romania', 4, -1, 4]</t>
   </si>
   <si>
     <t>['United States', 4, 0, 3]</t>
   </si>
   <si>
-    <t>['Belgium', 2, 0, 3]</t>
+    <t>['Belgium', 3, 0, 3]</t>
   </si>
   <si>
     <t>['Paraguay', 3, 0, 2]</t>
@@ -175,9 +172,6 @@
     <t>['Belgium', 3, 0, 5]</t>
   </si>
   <si>
-    <t>['Argentina', 2, 1, 2]</t>
-  </si>
-  <si>
     <t>['Argentina', 3, 1, 2]</t>
   </si>
   <si>
@@ -187,7 +181,7 @@
     <t>['Argentina', 3, 1, 3]</t>
   </si>
   <si>
-    <t>['Cameroon', 1, -3, 2]</t>
+    <t>['Cameroon', 2, -3, 2]</t>
   </si>
   <si>
     <t>['Russia', 3, -3, 2]</t>
@@ -211,7 +205,7 @@
     <t>['Russia', 3, 1, 7]</t>
   </si>
   <si>
-    <t>['Hungary', 2, -4, 2]</t>
+    <t>['Hungary', 3, -4, 2]</t>
   </si>
   <si>
     <t>['Hungary', 2, -5, 2]</t>
@@ -223,19 +217,16 @@
     <t>['Hungary', 2, -7, 2]</t>
   </si>
   <si>
-    <t>['Scotland', 2, 0, 2]</t>
+    <t>['Scotland', 3, 0, 2]</t>
   </si>
   <si>
     <t>['Sweden', 2, -1, 3]</t>
   </si>
   <si>
-    <t>['Scotland', 3, 0, 2]</t>
-  </si>
-  <si>
     <t>['Scotland', 2, -1, 2]</t>
   </si>
   <si>
-    <t>['South Korea', 2, 0, 2]</t>
+    <t>['South Korea', 3, 0, 2]</t>
   </si>
   <si>
     <t>['South Korea', 2, -1, 2]</t>
@@ -253,7 +244,7 @@
     <t>['South Korea', 2, -1, 4]</t>
   </si>
   <si>
-    <t>['Northern Ireland', 1, -1, 2]</t>
+    <t>['Northern Ireland', 2, -1, 2]</t>
   </si>
   <si>
     <t>['Algeria', 2, -1, 1]</t>
@@ -271,9 +262,6 @@
     <t>['Northern Ireland', 1, -4, 2]</t>
   </si>
   <si>
-    <t>['Colombia', 2, 1, 2]</t>
-  </si>
-  <si>
     <t>['Colombia', 3, 1, 2]</t>
   </si>
   <si>
@@ -283,9 +271,6 @@
     <t>['Colombia', 3, 1, 3]</t>
   </si>
   <si>
-    <t>['Bulgaria', 3, 1, 4]</t>
-  </si>
-  <si>
     <t>['Bulgaria', 4, 1, 4]</t>
   </si>
   <si>
@@ -295,46 +280,34 @@
     <t>['Argentina', 6, 3, 6]</t>
   </si>
   <si>
-    <t>['Uruguay', 1, -5, 2]</t>
-  </si>
-  <si>
     <t>['Uruguay', 2, -5, 2]</t>
   </si>
   <si>
-    <t>['Uruguay', 1, -2, 1]</t>
-  </si>
-  <si>
     <t>['Uruguay', 2, -2, 1]</t>
   </si>
   <si>
     <t>['Uruguay', 3, -1, 2]</t>
   </si>
   <si>
-    <t>['Norway', 3, 0, 1]</t>
-  </si>
-  <si>
     <t>['Norway', 4, 0, 1]</t>
   </si>
   <si>
     <t>['Italy', 4, 0, 2]</t>
   </si>
   <si>
-    <t>['Morocco', 2, 0, 0]</t>
+    <t>['Morocco', 3, 0, 0]</t>
   </si>
   <si>
     <t>['England', 3, 0, 1]</t>
   </si>
   <si>
-    <t>['Morocco', 3, 0, 0]</t>
-  </si>
-  <si>
     <t>['Poland', 3, -1, 1]</t>
   </si>
   <si>
     <t>['Poland', 3, -2, 1]</t>
   </si>
   <si>
-    <t>['Ireland', 2, 0, 1]</t>
+    <t>['Ireland', 3, 0, 1]</t>
   </si>
   <si>
     <t>['Egypt', 3, 0, 1]</t>
@@ -346,7 +319,7 @@
     <t>['Ireland', 3, 0, 2]</t>
   </si>
   <si>
-    <t>['Saudi Arabia', 3, 0, 3]</t>
+    <t>['Saudi Arabia', 4, 0, 3]</t>
   </si>
   <si>
     <t>['Netherlands', 4, 0, 2]</t>
@@ -361,16 +334,22 @@
     <t>['Belgium', 'Italy', 'Morocco', 'Hungary']</t>
   </si>
   <si>
-    <t>['Belgium', 'Morocco', 'Bulgaria', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Paraguay', 'Morocco', 'Bulgaria', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'England', 'Bulgaria', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Poland', 'Bulgaria', 'Hungary']</t>
+    <t>['Belgium', 'Italy', 'Morocco', 'Northern Ireland']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Morocco', 'Bulgaria', 'Northern Ireland']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+  </si>
+  <si>
+    <t>['Paraguay', 'Morocco', 'Northern Ireland', 'Bulgaria']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'England', 'Northern Ireland', 'Bulgaria']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'Poland', 'Northern Ireland', 'Bulgaria']</t>
   </si>
   <si>
     <t>['Belgium', 'Poland', 'Algeria', 'Bulgaria']</t>
@@ -382,13 +361,10 @@
     <t>['Argentina', 'Colombia', 'Scotland', 'Ireland']</t>
   </si>
   <si>
-    <t>['Colombia', 'Romania', 'Scotland', 'Ireland']</t>
-  </si>
-  <si>
-    <t>['Argentina', 'Scotland', 'Colombia', 'Ireland']</t>
-  </si>
-  <si>
-    <t>['Argentina', 'Colombia', 'Austria', 'Scotland']</t>
+    <t>['Colombia', 'Scotland', 'Ireland', 'Romania']</t>
+  </si>
+  <si>
+    <t>['Argentina', 'Scotland', 'Ireland', 'Colombia']</t>
   </si>
   <si>
     <t>['Argentina', 'Colombia', 'Ireland', 'Sweden']</t>
@@ -397,7 +373,7 @@
     <t>['Argentina', 'Colombia', 'Ireland', 'Austria']</t>
   </si>
   <si>
-    <t>['Argentina', 'Colombia', 'Uruguay', 'Ireland']</t>
+    <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
   </si>
   <si>
     <t>['Argentina', 'Colombia', 'Egypt', 'Uruguay']</t>
@@ -406,39 +382,24 @@
     <t>['Argentina', 'Colombia', 'Uruguay', 'Austria']</t>
   </si>
   <si>
-    <t>['Argentina', 'Colombia', 'Ireland', 'Uruguay']</t>
-  </si>
-  <si>
     <t>['Bulgaria', 'Saudi Arabia', 'Norway', 'Romania']</t>
   </si>
   <si>
-    <t>['United States', 'Bulgaria', 'Saudi Arabia', 'Norway']</t>
-  </si>
-  <si>
-    <t>['United States', 'Norway', 'Bulgaria', 'Saudi Arabia']</t>
-  </si>
-  <si>
-    <t>['United States', 'Italy', 'Bulgaria', 'Saudi Arabia']</t>
-  </si>
-  <si>
-    <t>['United States', 'Italy', 'Bulgaria', 'Russia']</t>
-  </si>
-  <si>
-    <t>['United States', 'Italy', 'Russia', 'Bulgaria']</t>
-  </si>
-  <si>
-    <t>['United States', 'Italy', 'Netherlands', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'United States', 'Italy', 'Russia']</t>
-  </si>
-  <si>
-    <t>['United States', 'Netherlands', 'Italy', 'Russia']</t>
+    <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Norway']</t>
+  </si>
+  <si>
+    <t>['Bulgaria', 'United States', 'Saudi Arabia', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Bulgaria', 'United States', 'Italy', 'Netherlands']</t>
   </si>
   <si>
     <t>['Belgium', 'Bulgaria', 'United States', 'Italy']</t>
   </si>
   <si>
+    <t>['Bulgaria', 'United States', 'Netherlands', 'Italy']</t>
+  </si>
+  <si>
     <t>['Bulgaria', 'Belgium', 'United States', 'Italy']</t>
   </si>
   <si>
@@ -451,21 +412,21 @@
     <t>['Hungary', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Algeria', 'Uruguay']</t>
+    <t>['Uruguay', 'Hungary']</t>
   </si>
   <si>
     <t>['Hungary', 'Northern Ireland']</t>
   </si>
   <si>
+    <t>['Hungary', 'Algeria']</t>
+  </si>
+  <si>
     <t>['Uruguay', 'Austria']</t>
   </si>
   <si>
     <t>['Austria', 'Uruguay']</t>
   </si>
   <si>
-    <t>['Ireland', 'Uruguay']</t>
-  </si>
-  <si>
     <t>['Scotland', 'Uruguay']</t>
   </si>
   <si>
@@ -478,25 +439,28 @@
     <t>['South Korea', 'Cameroon']</t>
   </si>
   <si>
+    <t>['Cameroon', 'South Korea']</t>
+  </si>
+  <si>
     <t>['Russia', 'South Korea']</t>
   </si>
   <si>
-    <t>['Saudi Arabia', 'South Korea']</t>
-  </si>
-  <si>
-    <t>['Bulgaria', 'South Korea']</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['Bulgaria', 'Northern Ireland']</t>
+  </si>
+  <si>
     <t>['Argentina', 'Colombia']</t>
   </si>
   <si>
-    <t>['Colombia', 'Scotland']</t>
-  </si>
-  <si>
     <t>['Argentina', 'Austria', 'Colombia', 'Scotland']</t>
+  </si>
+  <si>
+    <t>['Saudi Arabia', 'United States']</t>
+  </si>
+  <si>
+    <t>['Cameroon', 'Saudi Arabia', 'South Korea', 'United States']</t>
   </si>
   <si>
     <t>['Italy', 'Netherlands']</t>
@@ -942,28 +906,28 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
         <v>93</v>
       </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" t="s">
         <v>143</v>
-      </c>
-      <c r="O2" t="s">
-        <v>157</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -995,34 +959,34 @@
         <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
         <v>93</v>
       </c>
-      <c r="L3" t="s">
-        <v>101</v>
-      </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1048,34 +1012,34 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
         <v>93</v>
       </c>
-      <c r="L4" t="s">
-        <v>101</v>
-      </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1101,34 +1065,34 @@
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
         <v>93</v>
       </c>
-      <c r="L5" t="s">
-        <v>101</v>
-      </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" t="s">
         <v>143</v>
       </c>
-      <c r="O5" t="s">
-        <v>157</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1154,34 +1118,34 @@
         <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
         <v>93</v>
       </c>
-      <c r="L6" t="s">
-        <v>101</v>
-      </c>
       <c r="M6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" t="s">
         <v>143</v>
       </c>
-      <c r="O6" t="s">
-        <v>157</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1207,34 +1171,34 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
         <v>93</v>
       </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" t="s">
         <v>143</v>
       </c>
-      <c r="O7" t="s">
-        <v>157</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1260,34 +1224,34 @@
         <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
         <v>93</v>
       </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" t="s">
         <v>143</v>
       </c>
-      <c r="O8" t="s">
-        <v>157</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1313,34 +1277,34 @@
         <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
         <v>93</v>
       </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
       <c r="M9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O9" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1366,34 +1330,34 @@
         <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
         <v>93</v>
       </c>
-      <c r="L10" t="s">
-        <v>101</v>
-      </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1419,34 +1383,34 @@
         <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
         <v>93</v>
       </c>
-      <c r="L11" t="s">
-        <v>101</v>
-      </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1472,34 +1436,34 @@
         <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
         <v>93</v>
       </c>
-      <c r="L12" t="s">
-        <v>101</v>
-      </c>
       <c r="M12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1525,34 +1489,34 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
         <v>93</v>
       </c>
-      <c r="L13" t="s">
-        <v>101</v>
-      </c>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
         <v>143</v>
       </c>
-      <c r="O13" t="s">
-        <v>157</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1578,34 +1542,34 @@
         <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
         <v>93</v>
       </c>
-      <c r="L14" t="s">
-        <v>101</v>
-      </c>
       <c r="M14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
         <v>143</v>
       </c>
-      <c r="O14" t="s">
-        <v>157</v>
-      </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1631,34 +1595,34 @@
         <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s">
         <v>93</v>
       </c>
-      <c r="L15" t="s">
-        <v>101</v>
-      </c>
       <c r="M15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
         <v>143</v>
       </c>
-      <c r="O15" t="s">
-        <v>157</v>
-      </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1684,34 +1648,34 @@
         <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" t="s">
         <v>93</v>
       </c>
-      <c r="L16" t="s">
-        <v>101</v>
-      </c>
       <c r="M16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
         <v>143</v>
       </c>
-      <c r="O16" t="s">
-        <v>157</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1737,34 +1701,34 @@
         <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" t="s">
         <v>93</v>
       </c>
-      <c r="L17" t="s">
-        <v>101</v>
-      </c>
       <c r="M17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
         <v>143</v>
       </c>
-      <c r="O17" t="s">
-        <v>157</v>
-      </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1790,34 +1754,34 @@
         <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
         <v>93</v>
       </c>
-      <c r="L18" t="s">
-        <v>101</v>
-      </c>
       <c r="M18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
         <v>143</v>
       </c>
-      <c r="O18" t="s">
-        <v>157</v>
-      </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1843,34 +1807,34 @@
         <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" t="s">
         <v>93</v>
       </c>
-      <c r="L19" t="s">
-        <v>101</v>
-      </c>
       <c r="M19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
         <v>143</v>
       </c>
-      <c r="O19" t="s">
-        <v>157</v>
-      </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1896,34 +1860,34 @@
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
         <v>93</v>
       </c>
-      <c r="L20" t="s">
-        <v>101</v>
-      </c>
       <c r="M20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N20" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" t="s">
         <v>143</v>
       </c>
-      <c r="O20" t="s">
-        <v>157</v>
-      </c>
       <c r="P20">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1949,34 +1913,34 @@
         <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" t="s">
         <v>93</v>
       </c>
-      <c r="L21" t="s">
-        <v>101</v>
-      </c>
       <c r="M21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O21" t="s">
         <v>143</v>
       </c>
-      <c r="O21" t="s">
-        <v>157</v>
-      </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2002,34 +1966,34 @@
         <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" t="s">
         <v>93</v>
       </c>
-      <c r="L22" t="s">
-        <v>101</v>
-      </c>
       <c r="M22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" t="s">
         <v>143</v>
       </c>
-      <c r="O22" t="s">
-        <v>157</v>
-      </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2055,34 +2019,34 @@
         <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N23" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" t="s">
         <v>143</v>
       </c>
-      <c r="O23" t="s">
-        <v>157</v>
-      </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2108,34 +2072,34 @@
         <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s">
         <v>93</v>
       </c>
-      <c r="L24" t="s">
-        <v>103</v>
-      </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="N24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" t="s">
         <v>143</v>
       </c>
-      <c r="O24" t="s">
-        <v>157</v>
-      </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2161,34 +2125,34 @@
         <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N25" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" t="s">
         <v>143</v>
       </c>
-      <c r="O25" t="s">
-        <v>157</v>
-      </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2214,34 +2178,34 @@
         <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N26" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" t="s">
         <v>143</v>
       </c>
-      <c r="O26" t="s">
-        <v>157</v>
-      </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2267,34 +2231,34 @@
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
         <v>143</v>
       </c>
-      <c r="O27" t="s">
-        <v>157</v>
-      </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2320,34 +2284,34 @@
         <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s">
+        <v>132</v>
+      </c>
+      <c r="O28" t="s">
         <v>143</v>
       </c>
-      <c r="O28" t="s">
-        <v>157</v>
-      </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2373,34 +2337,34 @@
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" t="s">
         <v>143</v>
       </c>
-      <c r="O29" t="s">
-        <v>157</v>
-      </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2426,34 +2390,34 @@
         <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s">
+        <v>132</v>
+      </c>
+      <c r="O30" t="s">
         <v>143</v>
       </c>
-      <c r="O30" t="s">
-        <v>157</v>
-      </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2479,34 +2443,34 @@
         <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N31" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O31" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2532,34 +2496,34 @@
         <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N32" t="s">
+        <v>133</v>
+      </c>
+      <c r="O32" t="s">
         <v>143</v>
       </c>
-      <c r="O32" t="s">
-        <v>157</v>
-      </c>
       <c r="P32">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2585,34 +2549,34 @@
         <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L33" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2638,34 +2602,34 @@
         <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O34" t="s">
         <v>143</v>
       </c>
-      <c r="O34" t="s">
-        <v>157</v>
-      </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2691,34 +2655,34 @@
         <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N35" t="s">
+        <v>133</v>
+      </c>
+      <c r="O35" t="s">
         <v>143</v>
       </c>
-      <c r="O35" t="s">
-        <v>157</v>
-      </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2744,34 +2708,34 @@
         <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N36" t="s">
+        <v>133</v>
+      </c>
+      <c r="O36" t="s">
         <v>143</v>
       </c>
-      <c r="O36" t="s">
-        <v>157</v>
-      </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2797,34 +2761,34 @@
         <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N37" t="s">
+        <v>133</v>
+      </c>
+      <c r="O37" t="s">
         <v>143</v>
       </c>
-      <c r="O37" t="s">
-        <v>157</v>
-      </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2850,31 +2814,31 @@
         <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="N38" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="O38" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -2903,28 +2867,28 @@
         <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="N39" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="O39" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2956,28 +2920,28 @@
         <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M40" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N40" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O40" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3009,28 +2973,28 @@
         <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M41" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N41" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3062,28 +3026,28 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N42" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O42" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3115,28 +3079,28 @@
         <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N43" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O43" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -3168,28 +3132,28 @@
         <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M44" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N44" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O44" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -3221,28 +3185,28 @@
         <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M45" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N45" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O45" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3274,28 +3238,28 @@
         <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M46" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N46" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O46" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3327,28 +3291,28 @@
         <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M47" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N47" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O47" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3380,28 +3344,28 @@
         <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M48" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N48" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O48" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3433,28 +3397,28 @@
         <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M49" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N49" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O49" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3486,28 +3450,28 @@
         <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N50" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O50" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3539,28 +3503,28 @@
         <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M51" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N51" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O51" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3592,28 +3556,28 @@
         <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J52" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M52" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N52" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O52" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3645,28 +3609,28 @@
         <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M53" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N53" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O53" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3698,28 +3662,28 @@
         <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J54" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N54" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O54" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3748,31 +3712,31 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J55" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M55" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N55" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="O55" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3801,31 +3765,31 @@
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J56" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M56" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N56" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O56" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3854,37 +3818,37 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M57" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="N57" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O57" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3907,37 +3871,37 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M58" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="N58" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O58" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3960,37 +3924,37 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L59" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M59" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N59" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O59" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4013,37 +3977,37 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J60" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M60" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N60" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O60" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4066,37 +4030,37 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M61" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N61" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O61" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P61">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4119,37 +4083,37 @@
         <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K62" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L62" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M62" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N62" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O62" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P62">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4172,37 +4136,37 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M63" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N63" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O63" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P63">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4225,37 +4189,37 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L64" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M64" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N64" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O64" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4278,37 +4242,37 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M65" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N65" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O65" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4331,37 +4295,37 @@
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K66" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L66" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M66" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N66" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O66" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4384,37 +4348,37 @@
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J67" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L67" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M67" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N67" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O67" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4437,37 +4401,37 @@
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J68" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L68" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M68" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N68" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O68" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4490,37 +4454,37 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K69" t="s">
+        <v>90</v>
+      </c>
+      <c r="L69" t="s">
         <v>97</v>
       </c>
-      <c r="L69" t="s">
-        <v>106</v>
-      </c>
       <c r="M69" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="N69" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O69" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4543,37 +4507,37 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s">
+        <v>90</v>
+      </c>
+      <c r="L70" t="s">
         <v>97</v>
       </c>
-      <c r="L70" t="s">
-        <v>106</v>
-      </c>
       <c r="M70" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="N70" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O70" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4596,37 +4560,37 @@
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L71" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M71" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N71" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O71" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P71">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4649,37 +4613,37 @@
         <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I72" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K72" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L72" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M72" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N72" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O72" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P72">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4702,37 +4666,37 @@
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L73" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M73" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="N73" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O73" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P73">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4755,31 +4719,31 @@
         <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J74" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L74" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M74" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N74" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O74" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4808,31 +4772,31 @@
         <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J75" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L75" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M75" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N75" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O75" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P75">
         <v>1</v>
@@ -4861,31 +4825,31 @@
         <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I76" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J76" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L76" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M76" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N76" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O76" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4914,31 +4878,31 @@
         <v>6</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I77" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J77" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L77" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M77" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N77" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O77" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4967,31 +4931,31 @@
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J78" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L78" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M78" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N78" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O78" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -5020,31 +4984,31 @@
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J79" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L79" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M79" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N79" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O79" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -5073,31 +5037,31 @@
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I80" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J80" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L80" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M80" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N80" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O80" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5126,31 +5090,31 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I81" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J81" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L81" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M81" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N81" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O81" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -5179,31 +5143,31 @@
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I82" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J82" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L82" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M82" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N82" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O82" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5232,31 +5196,31 @@
         <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I83" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L83" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M83" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N83" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O83" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5285,31 +5249,31 @@
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I84" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J84" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L84" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M84" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N84" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O84" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5338,31 +5302,31 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J85" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M85" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N85" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O85" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -5391,31 +5355,31 @@
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I86" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K86" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M86" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N86" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O86" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5444,31 +5408,31 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I87" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J87" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K87" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M87" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N87" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O87" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -5497,31 +5461,31 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I88" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M88" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N88" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O88" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5550,31 +5514,31 @@
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I89" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L89" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M89" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N89" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O89" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5603,31 +5567,31 @@
         <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I90" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L90" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M90" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N90" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O90" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -5656,31 +5620,31 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I91" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K91" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L91" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M91" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N91" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O91" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5709,31 +5673,31 @@
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I92" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J92" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L92" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M92" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N92" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O92" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5762,31 +5726,31 @@
         <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I93" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J93" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K93" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L93" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M93" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N93" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O93" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5815,31 +5779,31 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I94" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J94" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K94" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L94" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M94" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N94" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O94" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5868,31 +5832,31 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I95" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J95" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K95" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L95" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M95" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N95" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O95" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5921,31 +5885,31 @@
         <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I96" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J96" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K96" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L96" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M96" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N96" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O96" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5974,31 +5938,31 @@
         <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I97" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J97" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K97" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L97" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M97" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N97" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O97" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6027,31 +5991,31 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I98" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J98" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K98" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L98" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M98" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N98" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O98" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6080,37 +6044,37 @@
         <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I99" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J99" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K99" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L99" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M99" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="N99" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="O99" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6133,37 +6097,37 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I100" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J100" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K100" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L100" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M100" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N100" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="O100" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6186,37 +6150,37 @@
         <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I101" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J101" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K101" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L101" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M101" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N101" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="O101" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6239,37 +6203,37 @@
         <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I102" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J102" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K102" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L102" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M102" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="N102" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O102" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="P102">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6292,37 +6256,37 @@
         <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I103" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J103" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L103" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M103" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N103" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O103" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P103">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6345,37 +6309,37 @@
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I104" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J104" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K104" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L104" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M104" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N104" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O104" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="P104">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6398,37 +6362,37 @@
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I105" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J105" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K105" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L105" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M105" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N105" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O105" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P105">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6451,37 +6415,37 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I106" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K106" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L106" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M106" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N106" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O106" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6504,37 +6468,37 @@
         <v>9</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I107" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J107" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K107" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L107" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M107" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="N107" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O107" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6557,37 +6521,37 @@
         <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J108" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L108" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M108" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="N108" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O108" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6610,37 +6574,37 @@
         <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I109" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J109" t="s">
+        <v>87</v>
+      </c>
+      <c r="K109" t="s">
         <v>92</v>
       </c>
-      <c r="K109" t="s">
-        <v>100</v>
-      </c>
       <c r="L109" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M109" t="s">
+        <v>129</v>
+      </c>
+      <c r="N109" t="s">
         <v>142</v>
       </c>
-      <c r="N109" t="s">
-        <v>154</v>
-      </c>
       <c r="O109" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P109">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6663,37 +6627,37 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I110" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J110" t="s">
+        <v>87</v>
+      </c>
+      <c r="K110" t="s">
         <v>92</v>
       </c>
-      <c r="K110" t="s">
-        <v>100</v>
-      </c>
       <c r="L110" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M110" t="s">
+        <v>129</v>
+      </c>
+      <c r="N110" t="s">
         <v>142</v>
       </c>
-      <c r="N110" t="s">
-        <v>154</v>
-      </c>
       <c r="O110" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
